--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/25_Denizli_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/25_Denizli_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD401EBF-50CE-41BA-A8F1-0296B7CDF8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15C5D43-649C-4E0E-8661-05928CF0BEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{08E4DC61-495C-4C47-88D9-145C8B8B6CC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{818466BA-0615-4CA0-A21A-C795CF034D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{13643D4D-4F7E-4D02-BBC6-A0DC1151589F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{992E3BAE-17E5-40D0-9611-A167FF2FD6A6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{212BB380-0533-4C2E-93B7-C3458CD8E8EB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F8F45BF7-A64B-4C03-8BE8-F7878680A439}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{35C36D27-4C8E-4922-A750-5BA0C9BCAE10}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{ECA77C62-04C6-496B-9B88-A83E05437D4E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4E1A3328-D6C5-44D8-A841-B51E02CCAD2D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{91835475-B4CE-4CCB-B8AC-6F1569A99DA4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F80C917A-5280-4BD9-B6C7-76C1628F326B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7E4AB1E7-4A40-46DD-8838-34573B63A67E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3753FBD1-0C80-4643-A0B7-89C08694A3B8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EE593BDE-8AE2-4456-93E0-0C829302D3ED}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{4256988B-F6A0-465E-8C94-0003480ABF69}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2DB87859-D551-4017-B2BD-6B2D6C813E76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D180043-6479-4514-9346-B3C89B333BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1052576-3F20-47A7-9BDE-DF5F13EF59F4}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2583,18 +2583,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C39C3B10-422B-4F03-AB68-8123D74B61B8}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D662FC48-16CE-4EBC-9E6B-6B99A43044CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9E209AF-7991-4810-80C4-8ACCFA841790}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16E71B1B-8091-4DE9-8934-A415ADAA5409}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40BFDBD4-A900-4127-A2C9-CCCD50121838}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F54F71C7-CA65-4E20-AC9B-0F2745627797}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D28B215-91E9-4F51-AF80-04DA0094E8AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A8246A0-0D4F-4477-8913-EB5C598F7FA1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F96E0E4D-9CF1-4FCA-9A27-E71EBF6B3281}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5EF52EBA-E0CD-45B6-84DE-7F88CC3DA411}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{679E257A-4C92-4FA3-8178-196E52BDB651}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13A0FBEC-7377-46AE-9D88-2B8126EDD617}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2438DA29-4728-4D92-9595-09449473D742}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DFD28BCF-C4B9-429D-A036-2A9EB3DE56E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89F6BAEA-9497-4D6D-8448-F3C07F539E10}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1DC5AA92-5C70-446E-B15B-432EE2343F82}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A5D1209-AB7B-4825-A73E-CFC0DD813094}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC7D23D6-577D-4156-9E24-A773EBBF4012}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B68E9B75-B265-4761-A98B-28A736E5A4EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D6DEADE-EE73-4E27-B1D3-949F097412B0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6BC19E6-781E-4254-AC1B-E683E1528173}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA8D06FF-FE49-487F-9F41-BFF66624A90E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8DC297A-EB59-4211-B938-F27A7BB97995}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFCA6836-3F9E-4611-9540-EFA19F9F2C03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2607,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A438AA-BA87-4B60-A964-51C89FCF5EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CC3A65-F9D2-4AA6-8DA2-BA6E87352FD3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3861,18 +3861,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3E3665E-1A76-4234-934C-3F1D065B8AEA}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8005C866-C87A-4D99-944B-CAED45E8D023}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CD42425-E28E-46BE-8D65-AD501BC40957}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{42A6EC2C-910C-49F0-B597-023DDA52A556}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC724437-301D-4842-B2B3-611D56C33784}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D85DC74-4345-4A73-924F-2B49B1A0AA25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A504B77-933C-417C-98F9-6542407DA1BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4921F6B5-E380-49CB-ADB9-A1BAF3673B95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B5C76B9-9B6C-4660-A5D6-F554F359911C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84DF5EF2-C93B-4826-AD41-5DAAB3C2A8A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D364F27F-19A4-49EC-A64C-80C8FD6DE41E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E03D45C4-84B0-4A40-AE59-27B084615511}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1FC39B6-BD5D-4B36-96AC-84C80A6C57FA}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{11B79529-C22E-47D7-85E1-C2DFFE1BC41B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B7CF27F7-941D-444C-BE30-14C1B7C1D550}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43286D7F-BE8D-4A33-8D87-E581F1303E57}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B578CA1-3671-49AE-B57F-859EAB056D89}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7938491E-55D0-4ACB-911E-954D222888AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D1064D6-B59E-49FE-B929-AF457F8E9A0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7E972D2-2B2A-470F-94FA-6C9B0835A071}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8B9C2A2-8A74-42D2-A34F-74290B54BCA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03BFB360-7BC5-4D4F-B37C-20EB4291A411}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26010B6E-4784-414F-9736-AAC073B24B72}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85DC92B3-60C2-4F09-8959-75C46AC4812B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3885,7 +3885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27A4997-60B9-4AA7-9C18-0DFDA148D016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D021AA7A-0303-453F-A009-2C563EFA1B8F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5133,17 +5133,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D952867-726B-4683-8500-9C5A88F244AB}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F96AD580-072C-4AAE-B67E-6AFC1D20E426}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF9FC17C-3DE2-43FF-839E-E7F619AC60C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F774268-59B8-49FC-B8BC-F6F67D4D8E97}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43A62C1C-E0BB-4EB2-96B7-06D86CB32173}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8D33A49-57CA-476B-862C-E663FF4E1C95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C86CF70F-0F9C-4D8A-9834-2ADF4E2071DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{714D8C85-48F6-4946-A686-F798563D24B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF5F1FC3-BD88-480F-9AF1-F438601142A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36E604F4-AED0-4C83-9772-F1A9CA1ACCD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15504EFA-95E9-4BD7-81A1-DCA4050F3600}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAE34D06-90C7-4E6A-A94E-B5F548DE87C1}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C3F3DDBD-36F8-4896-AAC0-0A05715FB0C3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F0985A37-516B-4125-8600-D9A52CA368C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D34EF17A-5814-4445-8DF9-4F7A9A5CEBB0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52A6D8C6-9BDE-497C-8DFF-8B0BB719E06C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D7EE1A4-A10A-495A-93CC-FC4307DB2BC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51FABB99-780D-40F1-B937-8AEBFA57F8AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A167F539-2998-4385-BE65-AA925031192E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31127EC4-10A5-4FC9-94A1-3F79140A8EEF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F461F66C-04EE-433D-8897-A813A61CF7E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAB0C63F-1036-4EA2-BDDF-917220858669}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5156,7 +5156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FBE51F-BEF1-449F-9DB3-D07E83D6311D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829AA2B-46B2-49D8-9527-32525C553223}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6404,18 +6404,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C30865F7-0AA6-45B4-9970-5571A49415EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A45C2F2-BD70-4357-873E-27F272EB1783}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0E3D8E52-C338-4A91-8A21-CA3E5E47CA36}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7735F9B2-2973-4873-BF85-71516655DC70}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE241013-8628-4A9F-B0B5-F485CFFA90A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C16BC2E-B7C8-492A-A9A9-C6CF588A07D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2903FD59-1F8C-4562-A8C2-66C9101B6246}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D304CC29-E0A2-40EB-B10D-908353CBD8A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7EEA20A8-D375-480C-B83B-2E58841EF6B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98369E50-9111-40EB-B821-54DF802A0A06}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD0175E7-4A52-4594-B6BB-EA0D1D69C4F7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CD48090-D7A7-46CF-BE32-F28630DB0A08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C15EBDC0-7487-4902-BA02-DC38CE80299F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F3D74EA-1434-4764-A2D0-C1CFE29F7E6A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D1A562DD-376B-4B50-82A5-55DCF302B3DB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A8238DE6-DD1F-4370-B45D-A4E2CF09BFDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{352ED9B4-7122-4A83-B1CC-127CC0E72C9B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57914D58-53B1-4857-BC28-0BD854E6B786}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{352F324A-1E6E-4894-B125-16C43B07870B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97184480-513E-4A17-AE66-D6A41531992C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F568E90-5F72-4FD4-93BA-3B749E5C8A5F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{188983AF-BF67-4930-B40F-CD5D7BD7F864}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD5DA755-5456-4660-873F-C89004FA53FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFC00E2B-DEDD-49F0-B737-7256C83831F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6428,7 +6428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF6CDF6-FE75-4906-9B28-FA97E26166DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6936CF9-2395-432A-8614-6E99CDBAA80B}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7694,18 +7694,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0187954F-69F3-43A4-BE49-68164409CE03}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D5E04C9A-9ED6-4C56-93EE-5231B98B9E97}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D2F6998-7B6D-4B4B-B904-FBDF97948414}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75711669-307B-47EC-B1D6-EDCEC8C43088}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66E00765-33BA-4EDD-9CB2-2690B27E4DB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B785331-2A6B-45CC-B771-3AE0C35123F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1B97D33-AAB4-43DF-81F5-CE763F4A0FDC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D50DAE4E-89CD-43DB-853B-4FF94BE60611}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7D17A06-7311-430F-99BB-3101C6E7882E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0753F1C1-EC45-4A05-90BF-5DC0737C0B74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB8BCBCB-0A92-41AF-97E1-804344A5C14D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E874E88-D5B7-4B6D-8B8E-36E8CE18D1FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E39360D1-D8BD-4B2B-AD73-E16C41D17630}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{847E30D9-1411-4A57-BDE1-F5494D87F750}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{987141A0-6E8D-4CC7-98F3-7337D2BAD70F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B05FAF20-5B47-4F1E-9328-FFFFA8EA3EC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C99436A3-57F9-47B4-9270-729E7FCA5DB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B7B77E2B-5240-419E-8935-65855C242FFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B876366C-7AEE-4E98-850B-A28881A3FF87}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{887505BB-0BDF-4B98-ACCF-8F30A8AF1043}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0532713E-BA07-4EF5-9A0B-DF4D492979B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8590F098-A769-4724-8A7C-13DE8261FD8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2C3D754-C8D1-480C-856F-8508FDE4654C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F67EF4A2-416D-4F01-A30B-EA532E17FFB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7718,7 +7718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51099393-F74E-4473-8A1F-ACD098F4AC22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EBFCB9-9CF3-42E4-9760-BE107395F5F1}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8984,18 +8984,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB66B4CC-1B9C-40C9-8ECA-68860A7E30B2}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A676E7C5-8B5F-419D-B9DC-A2ABE9A01C30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2640B214-9E99-4ED1-B2C5-42A8E4C39CD2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DFE1B751-290C-42F7-A4FF-FED7C13E40D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A09F6B4-D0D4-40EA-A2CF-18570CF93F77}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{829567B8-DFD7-424A-BB5A-BAEE55CA98F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33DF5F0A-3EE9-4FD1-B46F-2D200BA93A8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B6C2782C-C810-4504-9851-EFFD09034246}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{507DC03D-BC24-49AE-9A44-392670F212B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AFD11C08-5252-4C7E-B643-B51D0D92BCD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5805CFF5-1D23-47BA-BBA8-ECD3225FC8E0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8CBFFFB-5C20-436E-BA28-E12EBF0EE8C2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26890C7F-0E43-4818-81CA-F5E23870D409}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{806D8E0F-1807-4746-9911-09E71F182669}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB864AE0-F589-4975-9627-685EDB13C094}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A03BC262-9A4B-4375-A012-7BDEBBBD0DAE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8F5E346-B260-4362-B8E8-29459DB014C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E66CF62D-D915-4572-B69C-CE730D767A2C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBE9E4FE-2B7E-45D1-95AB-153153D2B538}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D90DDB37-F477-4CC2-88DE-7F67527CDA42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C87E42DF-637E-4864-A2C6-374705A1E6FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B1EB3BD-7D9A-431E-83F5-9418E2F1101C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB911DC5-8B0A-4153-95B4-336FF03C9062}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86AE7F70-0D5E-4367-9000-34D2EEFDF4D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9008,7 +9008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB3A6F6-18E1-4CE8-9D0F-1860F4716BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42C802B-2C83-4E77-A865-45A56D428909}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10274,18 +10274,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D5D2419-E0FB-4CFA-B443-7DF03F4F2D5D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CA0E6B5B-2344-4475-997A-E70044379B16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38597476-CF83-4467-89F2-3FF72020B2A7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{227AF822-FEDD-4AFA-B610-52E67C994461}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F369287D-FDEA-490D-B78E-1794CBD57847}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8CC30AE-5121-4DB6-9A7E-C07C85ACA2B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{402BB97D-B4AF-4F8C-B76D-5A957721E6A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{873D72CD-0434-43A7-AFE0-395EC650A92B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD54EDDC-5481-4B8C-AC6E-3A27B778ED7A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9698089-81E2-463F-A4BD-C40FF2E51D4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32A6430E-B642-4232-87B8-A0F3D6D7C07E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B64C724-D5C7-4175-98A8-3DFC03EF2F4D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E85BE3D-3206-46F4-ADF0-2FDFC5D8C6D0}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{32419F98-D543-4960-A9FF-5ECD56E96383}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1E46D3E-CE26-4222-82B4-FC4CEB7FA93F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1642C5FA-9185-4F8A-B3B9-E82D0A3188BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00D7893B-21CB-437A-B9A9-4A7883520F44}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABE36343-14C3-4F0D-989C-C962D8CE9810}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD86281B-5502-4101-B78A-5C99CE002090}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17011D64-BBB4-44A9-A609-B69B2DC4D62D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68D26A10-61DC-41F3-A3F9-59F0978A3D4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10601012-84AF-4016-99CB-2667135EB9E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92EDEB24-0B7E-4D3D-94B6-D3B2718609BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD9E1AF8-7320-418B-8183-07A21E75F05B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10298,7 +10298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C5E9B-1F07-45AF-93A2-34E615724BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2FDA9-CFBF-4D73-87CE-759A583EC806}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11568,18 +11568,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F93DF34-2BE3-4317-9ABE-1A6E6E26469E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1AB1AC05-C864-43A5-B12A-C4CD8C2B67BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A89C3065-D96D-4665-A424-3A566F532B97}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F72CB09B-A9D3-4660-B85D-62F53799F31D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DDE44CA-197B-4E67-9B22-1AF84DBC0281}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8851552-B5F3-49AE-96A0-0759D359E989}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{975E4856-045A-498C-B9C0-4B0038D84EF5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD5FED7D-93EA-4A5A-904C-BF240B12DA3A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2D34BB5-F522-4522-818A-7C11F5C992B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A4B7787-58EE-4973-BE01-CE517C468660}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA07F3D3-11C2-4B12-A0D7-AF09129C74DF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48B2DFF9-C232-48FA-9BBA-32119B607130}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87E433CC-F960-45DD-AE09-D4FEC82BD5BD}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{439C20BD-9ABB-44B3-B537-4DA8F5B265C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87C22A31-EB26-4042-98A3-ED58F2BC197A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{01610C06-A80E-4D7E-8AD2-B1597899DB27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4714260-6F07-496B-8BDF-01EFC5AF0068}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{794FAFF9-5ED1-4F46-BE2D-933763CC749B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{548A627E-1CDD-4121-9855-DBBFD13A5CBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1AA5829-AD1E-4A5C-B385-A768E68FF8E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9716CABA-D477-45D6-9815-ACB3595369C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84BE9F84-CDB4-4B61-81AA-8B0CEF420733}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C29A6E58-5C19-4793-AAD8-6C976DCCBD83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DAD37E5E-77C2-4B68-BD0A-F53FD1C37340}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11592,7 +11592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E517D30-17C6-47D4-A978-721015859912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12026A-7767-406E-861F-68CF68F94B7B}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12850,18 +12850,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{828FD5A9-5D66-4E36-A42B-808100F17465}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2C41000E-E42D-41D1-8A73-C1F1CBA4BEB3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{088F5022-2095-4CAD-A2D8-D01E72D93B4A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB0E7CC4-B900-49EC-858F-BFEA2E1A5BA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CDE183A-ACD0-43A3-9851-C7D492B5E0EC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BBE6AA2-F702-4DC1-AC66-2B544C8BF146}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80C2CA6B-CF37-4538-B426-F135B49209CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DC634F3-4811-4C82-A355-F7071AB4D1CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC51731F-0E27-459E-9FE4-B9BA39D371C9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6116E0D-3DA6-44A8-8EC5-895AD2369C3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{069A7405-68ED-409A-A7C9-D1A8DE943895}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D57CD574-C042-4CF8-9015-BFB7532994BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2A922AA-1153-49D0-A955-80CC3C0D7294}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{41A5BCDC-5D17-4065-A3C1-FB219A76D042}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94703581-03ED-47D1-A34D-1460E81AD856}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE109013-B336-4D24-B481-D80CFDAA42E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FEE32B45-E594-47E1-9730-2A6D038803F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1DD4EAC2-B4D8-4092-8711-9734AD03C134}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADB92DD8-4310-4941-AA4C-4A2C5D8FB1CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FD358F4-406E-4680-8EAB-7D78FDBC9A51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6ADC6950-8162-4DEA-8E2F-01FF641FD9A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{79BEBF47-9CAC-47BE-AC44-4C135D952FFC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FC7BB49-817A-45E3-85C4-2BED182E9EE3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C54201B8-6D63-4BB7-A274-8DA8A716540E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12874,7 +12874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90A34EA-1A3E-46E3-B787-209AB21BC609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AFB69E-CEE9-4CC3-8467-5B3C0E99CB5E}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14136,18 +14136,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95C5E69B-D149-4A0B-8D70-44F10209AFE2}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F0B7FAD8-66EF-4CE9-94CC-64CEE9383711}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{819F8220-4DCE-4324-8D7A-07CC8BC2E50C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB281D40-1B6E-44FD-9AB1-2F133C261DB5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D014FAD-E467-4F89-B98E-EBE014EC55F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{918CFD04-1C0B-4554-8492-C47EE07B4459}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5BEE85B-645B-4EE3-8BC9-B54A90F2D176}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD9D78EA-4BC7-4EB1-B8F1-F3797B5521C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{766FA9BF-C277-48D3-9342-31E7498A504D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5AA796E-967B-4F04-A125-582F696B7348}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83B65DF7-F119-4EB0-9A09-A082A9746A29}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4AE82F3-2CE8-427A-A9EA-58EBC43A1AD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00EF47C0-0DB3-4B02-97D1-EF83598ACA5B}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4A41B9D3-3937-406D-9C1C-FB7644046E71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E57BF785-FE32-49FB-86F1-E7BE9A2E03CB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0FB30ED0-00E6-425D-B4AA-1A449E541B67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E11E63A-65F4-4314-8513-A73D38B288EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55F7E73A-8263-416A-8C8E-DA90450D77C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{491B3438-5CDD-4C97-82E9-F0C0F646BFB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89D2975B-2FA1-4706-9DDC-1DDF616BD94F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B50BA39-4B79-4E51-86D7-FB9EE308F4A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1D9C828-A893-4C0D-BF51-972344AF0E33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28B7264D-D0A9-4A08-A76F-F1C683E64CB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA5C7549-22B9-4105-9247-95F5EA2215EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14160,7 +14160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151FFF54-9F87-425C-B7C6-75F65CDE464D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72655F7-45FD-4289-8115-78ACE75626A9}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15418,18 +15418,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6361660-3697-4099-AE0A-1B30CC6F73E6}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A3A75B37-1BC1-42BB-916F-18768110E0E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27987007-84AD-4239-B894-C3C86F650564}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0CBB39AC-2791-41F7-8783-891892A7648E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6296980-4D9B-4DFE-B91D-2EEFC6A1D657}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABB7A81D-EC2E-4FF2-B709-6A9AB9CC255D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3DD8E2E-198E-47DE-AF9D-8B4F9A92FAE8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EA85903-4880-4E65-9837-3C39F648265F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0944E0C3-9A54-4368-B1E4-2FC00934FB48}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2DE5DDC1-097C-4074-9954-DA632867B007}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F8FC10C-A9FB-4679-8E3C-1CCB796EC23D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C9A6CBB-9CF9-41C4-8C52-2B3DF7FC3BB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC4981FF-C04F-4233-ADA7-04D22D247BF1}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F7D7EC13-6CB5-40DD-B551-9A2A3C45EA69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7B18D96-19A7-4CEF-B783-666738261AAA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{423A4F97-186A-40EF-9267-3FC78569CA41}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40163D52-8CCF-455A-B9FF-546D818D5E45}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A11A37FA-649C-4F97-B32D-F1D83216E09B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30669A44-4A66-4CA5-A037-98D244B93191}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7EAC121-0BDB-42AD-B6E7-874E946B6066}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC1EBE2F-09FA-48C0-9262-0298394B327B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A1B85D8-C60A-4CF9-93A0-5B696D38A0EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F174388F-1DEA-48F0-9D06-D427437DAE9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1083508-9266-4E09-AFD0-E6C456ADDEF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15442,7 +15442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D14CAB-0A46-4DC6-AA9A-0BD40C75B50F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF212D-95A0-4CDA-83F7-E957C946F0EE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16700,18 +16700,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10B8171D-D81F-419E-A117-FB02CCB15168}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D876291B-D40C-496F-A4CE-4729A6DE5A6A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9962F7F4-826F-4219-828E-6EA5394888FF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2AAD6EA3-D682-4B2C-AA6A-733DF02D65A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EC5B279A-EA84-4B92-B0C5-1111BE3E5527}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BB7D32E-14A3-4F11-9ECE-6D2DC07ACE8B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0A0328B-2711-42F2-B128-31E5C54A7CEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E936B69F-647D-4A15-8B99-B260F26829C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A70F95E-F130-4810-95B2-15B6BCDA3FA5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AAB6E2A1-3299-4DB6-8CE5-71827E4BCBDC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4502048-790E-4190-B85D-3F1C78C1794C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D13D7CD4-AB82-4006-9AF7-F647D9FD79BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{964CE21F-0567-4B45-B6D3-E337C3F8786D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8DB145F3-E4F7-4B03-8F85-83605FABB1D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BC073EF-0BB7-4DF7-B266-F2CE63313134}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BFF7C6E4-5AAF-489B-9D35-4C06E0E77C9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD7ED6A2-21B8-415B-B25C-7C4F797EEDC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2654988A-F4A6-4082-8356-6BB744B55E8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A38D0FD7-D4EB-4B22-860E-388453666CA8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A6FCCEF-6409-40B5-878B-D1D6036D65A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{008ECB70-8E72-4F4B-86AB-E4B11A99AC8E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{708CADE0-593C-429E-B944-52B5D6BBF501}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08EB536E-193B-4FBC-AD24-70981F363214}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8D161A8-1AF0-4131-AB91-FB26C4815CB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
